--- a/REGULAR/RE-ENCODE/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>SL(0-4-0)</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1073,7 +1076,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1140,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1200,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1266,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1329,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1427,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1486,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1551,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1594,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1669,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1855,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1921,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2045,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2101,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2176,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2285,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2341,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2437,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K144" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2781,12 +2784,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,7 +2952,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>104.279</v>
+        <v>104.529</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2959,7 +2962,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.667000000000002</v>
+        <v>47.917000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4969,15 +4972,19 @@
       <c r="B100" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C100" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
+      <c r="G100" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H100" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
       <c r="K100" s="49">
@@ -4985,10 +4992,10 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B101" s="20"/>
+      <c r="A101" s="40"/>
+      <c r="B101" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
       <c r="E101" s="9"/>
@@ -4998,19 +5005,25 @@
         <v/>
       </c>
       <c r="H101" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="49">
+        <v>45043</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B102" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
+      <c r="D102" s="39">
+        <v>1</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -5020,13 +5033,15 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45058</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B103" s="20"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
       <c r="E103" s="9"/>
@@ -5035,14 +5050,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H103" s="39"/>
+      <c r="H103" s="39">
+        <v>1</v>
+      </c>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="49">
+        <v>45057</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5060,7 +5079,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5078,7 +5097,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5096,7 +5115,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5114,7 +5133,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5132,7 +5151,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5150,7 +5169,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5168,7 +5187,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5186,7 +5205,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5204,7 +5223,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5222,7 +5241,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5240,7 +5259,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5258,7 +5277,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5276,7 +5295,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5294,7 +5313,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5312,7 +5331,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5330,7 +5349,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5348,7 +5367,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5366,7 +5385,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5384,7 +5403,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5402,7 +5421,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5420,7 +5439,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5438,7 +5457,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5456,7 +5475,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5474,7 +5493,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5492,7 +5511,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5510,7 +5529,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5528,7 +5547,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5546,7 +5565,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5564,7 +5583,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5582,7 +5601,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5600,7 +5619,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5618,7 +5637,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5636,7 +5655,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5654,7 +5673,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5672,7 +5691,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5690,7 +5709,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5708,7 +5727,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5726,7 +5745,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5743,7 +5762,9 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="40"/>
+      <c r="A143" s="40">
+        <v>46266</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
@@ -5759,20 +5780,54 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+      <c r="A144" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/RE-ENCODE/DE OCAMPO, MA. ELENA DE GRANO.xlsx
+++ b/REGULAR/RE-ENCODE/DE OCAMPO, MA. ELENA DE GRANO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>5/23-26,29-31/2023</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2443,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2784,12 +2790,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K146"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2952,7 +2958,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>104.529</v>
+        <v>97.778999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2962,7 +2968,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47.917000000000002</v>
+        <v>48.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5020,15 +5026,17 @@
       <c r="B102" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39">
         <v>1</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
@@ -5060,10 +5068,10 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B104" s="20"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
@@ -5072,18 +5080,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H104" s="39"/>
+      <c r="H104" s="39">
+        <v>1</v>
+      </c>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="49">
+        <v>45064</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B105" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
+      <c r="D105" s="39">
+        <v>8</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
@@ -5093,11 +5109,13 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5115,7 +5133,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5133,7 +5151,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5151,7 +5169,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5169,7 +5187,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5187,7 +5205,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5205,7 +5223,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5223,7 +5241,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5241,7 +5259,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5259,7 +5277,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5277,7 +5295,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5295,7 +5313,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5313,7 +5331,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5331,7 +5349,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5349,7 +5367,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5367,7 +5385,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5385,7 +5403,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5403,7 +5421,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5421,7 +5439,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5439,7 +5457,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5457,7 +5475,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5475,7 +5493,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5493,7 +5511,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5511,7 +5529,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5529,7 +5547,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5547,7 +5565,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5565,7 +5583,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5583,7 +5601,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5601,7 +5619,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5619,7 +5637,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5637,7 +5655,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5655,7 +5673,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5673,7 +5691,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5691,7 +5709,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5709,7 +5727,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5727,7 +5745,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5745,7 +5763,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5763,7 +5781,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5781,7 +5799,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5798,7 +5816,9 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
+      <c r="A145" s="40">
+        <v>46296</v>
+      </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
       <c r="D145" s="39"/>
@@ -5814,20 +5834,36 @@
       <c r="K145" s="20"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="41"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="43"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="43"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
       <c r="I146" s="9"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="15"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
